--- a/DOM_Banner/output/dept0713/Moulun Luo_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Moulun Luo_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,244 +534,259 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Moulun Luo, Yuanhong Xu, Jike Li, Dongxia Luo, Li Zhu, Yanxi Wu, Xiaodong Liu, Pengfei Wu</t>
+          <t>Moulun Luo, Gaetano Santulli</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378717005</t>
+          <t>Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Molecular Pharmacology, Einstein-Mount Sinai Diabetes Research Center (ES-DRC), Einstein Institute for Aging Research, Institute for Neuroimmunology and Inflammation (INI), Albert Einstein College of Medicine, New York, NY, United States</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vitamin D protects intestines from liver cirrhosis-induced inflammation and oxidative stress by inhibiting the TLR4/MyD88/NF-κB signaling pathway</t>
+          <t>https://openalex.org/W4381429717</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Editorial: The link between obesity, type 2 diabetes, and mitochondria</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Open Medicine</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>De Gruyter Open</t>
+          <t>Frontiers in Endocrinology</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/med-2023-0714</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37273916</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/med-2023-0714</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37409237</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>editorial</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Moulun Luo, Gaetano Santulli</t>
+          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Steven L. Peterson, Maria Sans-Fuentes, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381429717</t>
+          <t>Department of Neurology, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Physiology Undergraduate Program, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Departments of Physiology and Biomedical Engineering, University of Arizona, Tucson, AZ; Department of Neurology, University of Arizona, Tucson, AZ; Evelyn F McKnight Brain Institute and BIO5 Institute, University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Editorial: The link between obesity, type 2 diabetes, and mitochondria</t>
+          <t>https://openalex.org/W4384023243</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>Parallel neurodegenerative phenotypes in sporadic Parkinson’s disease fibroblasts and midbrain dopamine neurons</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Frontiers in Endocrinology</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Progress in Neurobiology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>cc-by-nc-nd</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37409237</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37451330</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Steven L. Peterson, Maria Sans-Fuentes, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
+          <t>Moulun Luo, Yuanhong Xu, Jike Li, Dongxia Luo, Li Zhu, Yanxi Wu, Xiaodong Liu, Pengfei Wu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384023243</t>
+          <t>Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Clinical Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Hepatology Clinic, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Clinical Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parallel neurodegenerative phenotypes in sporadic Parkinson’s disease fibroblasts and midbrain dopamine neurons</t>
+          <t>https://openalex.org/W4378717005</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Vitamin D protects intestines from liver cirrhosis-induced inflammation and oxidative stress by inhibiting the TLR4/MyD88/NF-κB signaling pathway</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Progress in Neurobiology</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Open Medicine</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
+          <t>De Gruyter Open</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1515/med-2023-0714</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37451330</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37273916</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1515/med-2023-0714</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320179215</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Parallel Neurodegenerative Phenotypes in Sporadic Parkinson’s Disease Fibroblasts and Midbrain Dopamine Neurons</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-02-12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36798207</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361824079</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Data from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.c.6509109.v1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.c.6509109.v1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362346493</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22414911</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22414911</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362348194</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22414899</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22414899</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362348196</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22414902</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22414902</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421757</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362422092</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421849</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362446471</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22414905</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414905</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421881</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362461672</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22414908</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414908</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1496,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362422092</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362461723</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22414914</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414914</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362422103</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362528337</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509883</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509883</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,27 +1665,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362422259</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362544870</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,27 +1752,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362446471</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362548392</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509904</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509904</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,27 +1839,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362461672</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362548404</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509886</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509886</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,27 +1926,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362461723</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>https://openalex.org/W4362548466</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509898</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509898</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,24 +2018,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362528337</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362548474</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509907</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509907</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,24 +2105,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362544870</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362548485</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22509895</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509895</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,29 +2187,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548392</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362548494</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.22509901</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509901</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,24 +2279,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548404</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362548496</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509889</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509889</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,24 +2366,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548466</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362548508</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.22509892</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509892</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,29 +2448,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548474</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362568194</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2410,80 +2535,85 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Hao Chen, Moulun Luo, Xiangping Wang, Ting Liang, Chung-Chi Huang, Chien-Hung Huang, Lining Wei</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548485</t>
+          <t>Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, No. 13 Dancun Road, Jiangnan District, Nanning, 530031, Guangxi, China; Department of Endoscopy, The Affiliated Tumor Hospital of Guangxi Medical University, Nanning, China</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362601969</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Correction: Inhibition of PAD4 enhances radiosensitivity and inhibits aggressive phenotypes of nasopharyngeal carcinoma cells</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cellular &amp; Molecular Biology Letters</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37016289</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,24 +2627,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548494</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362632760</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2522,50 +2652,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,24 +2714,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548496</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362633184</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2604,50 +2739,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,24 +2801,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548508</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362634321</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2686,50 +2826,55 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2738,29 +2883,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568194</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362635423</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2768,50 +2913,55 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,80 +2970,85 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hao Chen, Moulun Luo, Xiangping Wang, Ting Liang, Chung-Chi Huang, Chien-Hung Huang, Lining Wei</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362601969</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Correction: Inhibition of PAD4 enhances radiosensitivity and inhibits aggressive phenotypes of nasopharyngeal carcinoma cells</t>
+          <t>https://openalex.org/W4362636285</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cellular &amp; Molecular Biology Letters</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37016289</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,29 +3057,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362632760</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362637849</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2932,50 +3087,55 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2989,24 +3149,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362633184</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362637961</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3014,50 +3174,55 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3066,29 +3231,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362634321</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362638052</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3096,50 +3261,55 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3148,29 +3318,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362635423</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362639398</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3178,50 +3348,55 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3230,27 +3405,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuanmin Wang, Moulun Luo, Fukun Zhao, Mu Chun Su, Meiyan Li</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362636285</t>
+          <t>Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4378804477</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Bioinformatics analysis of key genes in patients with sarcoidosis and prediction of traditional Chinese Medicine</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3260,50 +3435,55 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1145/3592686.3592739</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3592686.3592739</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3312,80 +3492,85 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yi Liu, X. Ai, G. C. Xiao, Yaxuan Li, Wu Ling-Hui, Liangliang Wang, J. Dong, M. Y. Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Ruikai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362637849</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4386557787</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Simulation study of BESIII with stitched CMOS pixel detector using ACTS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://arxiv.org/abs/2309.02358</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2309.02358</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,80 +3579,85 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yi Liu, X. Ai, G. Y. Xiao, Yaxuan Li, Wu Ling-Hui, Liang-Liang Wang, J. Dong, Ming-Yi Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Rui-Kai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362637961</t>
+          <t>School of Physics and Microelectronics, Zhengzhou University, Zhengzhou, 450001, China; School of Physics and Microelectronics, Zhengzhou University, Zhengzhou, 450001, China; School of Physics, Nanjing University, Nanjing, 210093, China; School of Physics, Nankai University, Tianjin, 300071, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Physics, Nanjing University, Nanjing, 210093, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; School of Physics, Nankai University, Tianjin, 300071, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4389617103</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Simulation study of BESIII with stitched CMOS pixel detector using acts</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nuclear Science and Techniques</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3476,27 +3666,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Fan Wang, Moulun Luo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362638052</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4390080872</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Structural View of Human ABCs in Multidrug Resistance</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3506,50 +3696,55 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3558,27 +3753,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362639398</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>https://openalex.org/W4362421757</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3588,50 +3783,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3640,27 +3840,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Yuanmin Wang, Moulun Luo, Fukun Zhao, Mu Chun Su, Meiyan Li</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378804477</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bioinformatics analysis of key genes in patients with sarcoidosis and prediction of traditional Chinese Medicine</t>
+          <t>https://openalex.org/W4362421849</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3670,50 +3870,55 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3592686.3592739</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3592686.3592739</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,80 +3927,85 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yi Liu, X. Ai, G. C. Xiao, Yaxuan Li, Wu Ling-Hui, Liangliang Wang, J. Dong, M. Y. Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Ruikai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386557787</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Simulation study of BESIII with stitched CMOS pixel detector using ACTS</t>
+          <t>https://openalex.org/W4362421881</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2309.02358</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2309.02358</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3804,80 +4014,85 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Yi Liu, X. Ai, G. Y. Xiao, Yaxuan Li, Wu Ling-Hui, Liang-Liang Wang, J. Dong, Ming-Yi Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Rui-Kai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389617103</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Simulation study of BESIII with stitched CMOS pixel detector using acts</t>
+          <t>https://openalex.org/W4362422103</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nuclear Science and Techniques</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Springer Nature</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,27 +4101,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fan Wang, Moulun Luo</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390080872</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Structural View of Human ABCs in Multidrug Resistance</t>
+          <t>https://openalex.org/W4362422259</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3916,50 +4131,55 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Moulun Luo_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Moulun Luo_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,42 +534,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Moulun Luo, Gaetano Santulli</t>
+          <t>Moulun Luo, Yuanhong Xu, Jike Li, Dongxia Luo, Li Zhu, Yanxi Wu, Xiaodong Liu, Pengfei Wu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Molecular Pharmacology, Einstein-Mount Sinai Diabetes Research Center (ES-DRC), Einstein Institute for Aging Research, Institute for Neuroimmunology and Inflammation (INI), Albert Einstein College of Medicine, New York, NY, United States</t>
+          <t>Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Clinical Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Hepatology Clinic, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Clinical Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381429717</t>
+          <t>https://openalex.org/W4378717005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Editorial: The link between obesity, type 2 diabetes, and mitochondria</t>
+          <t>Vitamin D protects intestines from liver cirrhosis-induced inflammation and oxidative stress by inhibiting the TLR4/MyD88/NF-κB signaling pathway</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frontiers in Endocrinology</t>
+          <t>Open Medicine</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>De Gruyter Open</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
+          <t>https://doi.org/10.1515/med-2023-0714</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,64 +604,64 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37409237</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37273916</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
+          <t>https://doi.org/10.1515/med-2023-0714</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Steven L. Peterson, Maria Sans-Fuentes, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
+          <t>Moulun Luo, Gaetano Santulli</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Neurology, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Physiology Undergraduate Program, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Departments of Physiology and Biomedical Engineering, University of Arizona, Tucson, AZ; Department of Neurology, University of Arizona, Tucson, AZ; Evelyn F McKnight Brain Institute and BIO5 Institute, University of Arizona, Tucson, AZ</t>
+          <t>Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Molecular Pharmacology, Einstein-Mount Sinai Diabetes Research Center (ES-DRC), Einstein Institute for Aging Research, Institute for Neuroimmunology and Inflammation (INI), Albert Einstein College of Medicine, New York, NY, United States</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384023243</t>
+          <t>https://openalex.org/W4381429717</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Parallel neurodegenerative phenotypes in sporadic Parkinson’s disease fibroblasts and midbrain dopamine neurons</t>
+          <t>Editorial: The link between obesity, type 2 diabetes, and mitochondria</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Progress in Neurobiology</t>
+          <t>Frontiers in Endocrinology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
+          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -691,64 +691,64 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37451330</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37409237</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
+          <t>https://doi.org/10.3389/fendo.2023.1229935</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>editorial</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Moulun Luo, Yuanhong Xu, Jike Li, Dongxia Luo, Li Zhu, Yanxi Wu, Xiaodong Liu, Pengfei Wu</t>
+          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Steven L. Peterson, Maria Sans-Fuentes, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Clinical Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Hepatology Clinic, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Clinical Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China; Infectious Disease Laboratory, Chengdu Public Health Clinical Center , Chengdu , 610061 , China</t>
+          <t>Department of Neurology, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Physiology Undergraduate Program, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Statistical Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ; Physiological Sciences Graduate Program, University of Arizona, Tucson, AZ; Departments of Physiology and Biomedical Engineering, University of Arizona, Tucson, AZ; Department of Neurology, University of Arizona, Tucson, AZ; Evelyn F McKnight Brain Institute and BIO5 Institute, University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378717005</t>
+          <t>https://openalex.org/W4384023243</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vitamin D protects intestines from liver cirrhosis-induced inflammation and oxidative stress by inhibiting the TLR4/MyD88/NF-κB signaling pathway</t>
+          <t>Parallel neurodegenerative phenotypes in sporadic Parkinson’s disease fibroblasts and midbrain dopamine neurons</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Open Medicine</t>
+          <t>Progress in Neurobiology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>De Gruyter Open</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/med-2023-0714</t>
+          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37273916</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37451330</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/med-2023-0714</t>
+          <t>https://doi.org/10.1016/j.pneurobio.2023.102501</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,47 +795,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Sayeh Peterson, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320179215</t>
+          <t>https://openalex.org/W4362632760</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Parallel Neurodegenerative Phenotypes in Sporadic Parkinson’s Disease Fibroblasts and Midbrain Dopamine Neurons</t>
+          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.10.527867</t>
+          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36798207</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.10.527867</t>
+          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,27 +882,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361824079</t>
+          <t>https://openalex.org/W4362638052</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Data from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6509109.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6509109.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,47 +969,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Mandi J. Corenblum, Aiden McRobbie-Johnson, Emma Carruth, Kelsey Bernard, Moulun Luo, Lawrence J. Mandarino, Sayeh Peterson, Dean Billheimer, Timothy Maley, Erika D. Eggers, Lalitha Madhavan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362346493</t>
+          <t>https://openalex.org/W4320179215</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Parallel Neurodegenerative Phenotypes in Sporadic Parkinson’s Disease Fibroblasts and Midbrain Dopamine Neurons</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414911</t>
+          <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36798207</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414911</t>
+          <t>https://doi.org/10.1101/2023.02.10.527867</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1066,12 +1066,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362348194</t>
+          <t>https://openalex.org/W4361824079</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Data from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414899</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6509109.v1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414899</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6509109.v1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362348196</t>
+          <t>https://openalex.org/W4362346493</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414902</t>
+          <t>https://doi.org/10.1158/0008-5472.22414911</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414902</t>
+          <t>https://doi.org/10.1158/0008-5472.22414911</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362422092</t>
+          <t>https://openalex.org/W4362348194</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22414899</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
+          <t>https://doi.org/10.1158/0008-5472.22414899</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362446471</t>
+          <t>https://openalex.org/W4362348196</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905</t>
+          <t>https://doi.org/10.1158/0008-5472.22414902</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905</t>
+          <t>https://doi.org/10.1158/0008-5472.22414902</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362461672</t>
+          <t>https://openalex.org/W4362421757</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908</t>
+          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414908</t>
+          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362461723</t>
+          <t>https://openalex.org/W4362421849</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914</t>
+          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914</t>
+          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362528337</t>
+          <t>https://openalex.org/W4362421881</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883</t>
+          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883</t>
+          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,27 +1665,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362544870</t>
+          <t>https://openalex.org/W4362422092</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
+          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
+          <t>https://doi.org/10.1158/0008-5472.22414908.v1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,27 +1752,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548392</t>
+          <t>https://openalex.org/W4362422103</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904</t>
+          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904</t>
+          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,27 +1839,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548404</t>
+          <t>https://openalex.org/W4362422259</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886</t>
+          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886</t>
+          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,27 +1926,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548466</t>
+          <t>https://openalex.org/W4362446471</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898</t>
+          <t>https://doi.org/10.1158/0008-5472.22414905</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898</t>
+          <t>https://doi.org/10.1158/0008-5472.22414905</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,27 +2013,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548474</t>
+          <t>https://openalex.org/W4362461672</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplementary table 3 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907</t>
+          <t>https://doi.org/10.1158/0008-5472.22414908</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907</t>
+          <t>https://doi.org/10.1158/0008-5472.22414908</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,27 +2100,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548485</t>
+          <t>https://openalex.org/W4362461723</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895</t>
+          <t>https://doi.org/10.1158/0008-5472.22414914</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895</t>
+          <t>https://doi.org/10.1158/0008-5472.22414914</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,7 +2187,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548494</t>
+          <t>https://openalex.org/W4362528337</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901</t>
+          <t>https://doi.org/10.1158/1535-7163.22509883</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901</t>
+          <t>https://doi.org/10.1158/1535-7163.22509883</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548496</t>
+          <t>https://openalex.org/W4362544870</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362548508</t>
+          <t>https://openalex.org/W4362548392</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,12 +2396,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892</t>
+          <t>https://doi.org/10.1158/1535-7163.22509904</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892</t>
+          <t>https://doi.org/10.1158/1535-7163.22509904</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568194</t>
+          <t>https://openalex.org/W4362548404</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2483,12 +2483,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509886</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509886</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2535,42 +2535,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hao Chen, Moulun Luo, Xiangping Wang, Ting Liang, Chung-Chi Huang, Chien-Hung Huang, Lining Wei</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, No. 13 Dancun Road, Jiangnan District, Nanning, 530031, Guangxi, China; Department of Endoscopy, The Affiliated Tumor Hospital of Guangxi Medical University, Nanning, China</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362601969</t>
+          <t>https://openalex.org/W4362548466</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Correction: Inhibition of PAD4 enhances radiosensitivity and inhibits aggressive phenotypes of nasopharyngeal carcinoma cells</t>
+          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cellular &amp; Molecular Biology Letters</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
+          <t>https://doi.org/10.1158/1535-7163.22509898</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37016289</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
+          <t>https://doi.org/10.1158/1535-7163.22509898</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2622,7 +2622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362632760</t>
+          <t>https://openalex.org/W4362548474</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Supplement 2. Next generation sequencing results for first round screen from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509907</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509898.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509907</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362633184</t>
+          <t>https://openalex.org/W4362548485</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509895</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509895</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2806,12 +2806,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362634321</t>
+          <t>https://openalex.org/W4362548494</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509901</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509901</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362635423</t>
+          <t>https://openalex.org/W4362548496</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509889</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509889</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362636285</t>
+          <t>https://openalex.org/W4362548508</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509892</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509892</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362637849</t>
+          <t>https://openalex.org/W4362568194</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Data from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6539428.v1</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3144,42 +3144,42 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Hao Chen, Moulun Luo, Xiangping Wang, Ting Liang, Chung-Chi Huang, Chien-Hung Huang, Lining Wei</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, Nanning, China; Department of Oncology, The Second Nanning People’s Hospital, No. 13 Dancun Road, Jiangnan District, Nanning, 530031, Guangxi, China; Department of Endoscopy, The Affiliated Tumor Hospital of Guangxi Medical University, Nanning, China</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362637961</t>
+          <t>https://openalex.org/W4362601969</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Correction: Inhibition of PAD4 enhances radiosensitivity and inhibits aggressive phenotypes of nasopharyngeal carcinoma cells</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cellular &amp; Molecular Biology Letters</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
+          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37016289</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
+          <t>https://doi.org/10.1186/s11658-023-00444-x</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3231,7 +3231,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362638052</t>
+          <t>https://openalex.org/W4362633184</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Table S1: IC50 (nM) for M cells deleted PSMC subunits treated with BTZ from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Supplemental Figure legends from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509883.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509886.v1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362639398</t>
+          <t>https://openalex.org/W4362634321</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
+          <t>Figure S1 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509907.v1</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3405,27 +3405,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Yuanmin Wang, Moulun Luo, Fukun Zhao, Mu Chun Su, Meiyan Li</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378804477</t>
+          <t>https://openalex.org/W4362635423</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bioinformatics analysis of key genes in patients with sarcoidosis and prediction of traditional Chinese Medicine</t>
+          <t>FigureS2 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3440,22 +3440,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3592686.3592739</t>
+          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3592686.3592739</t>
+          <t>https://doi.org/10.1158/1535-7163.22509904.v1</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3492,47 +3492,47 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Yi Liu, X. Ai, G. C. Xiao, Yaxuan Li, Wu Ling-Hui, Liangliang Wang, J. Dong, M. Y. Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Ruikai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386557787</t>
+          <t>https://openalex.org/W4362636285</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Simulation study of BESIII with stitched CMOS pixel detector using ACTS</t>
+          <t>Supplement 5. A total of 36 mutations in 19S proteasome subunits out of 895 patients were identified in CoMMpass study. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2309.02358</t>
+          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2309.02358</t>
+          <t>https://doi.org/10.1158/1535-7163.22509889.v1</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3579,57 +3579,57 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Yi Liu, X. Ai, G. Y. Xiao, Yaxuan Li, Wu Ling-Hui, Liang-Liang Wang, J. Dong, Ming-Yi Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Rui-Kai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>School of Physics and Microelectronics, Zhengzhou University, Zhengzhou, 450001, China; School of Physics and Microelectronics, Zhengzhou University, Zhengzhou, 450001, China; School of Physics, Nanjing University, Nanjing, 210093, China; School of Physics, Nankai University, Tianjin, 300071, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Physics, Nanjing University, Nanjing, 210093, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; School of Physics, Nankai University, Tianjin, 300071, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389617103</t>
+          <t>https://openalex.org/W4362637849</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Simulation study of BESIII with stitched CMOS pixel detector using acts</t>
+          <t>Supplement 1. sgRNA sequences targeting PSMC1 to C6 from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nuclear Science and Techniques</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Springer Nature</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
+          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
+          <t>https://doi.org/10.1158/1535-7163.22509901.v1</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3666,27 +3666,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fan Wang, Moulun Luo</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert A. Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390080872</t>
+          <t>https://openalex.org/W4362637961</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Structural View of Human ABCs in Multidrug Resistance</t>
+          <t>Supplement 3. sgRNA sequences used for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509895.v1</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3753,27 +3753,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Chang‐Xin Shi, K. Martin Kortüm, Yuan Xiao Zhu, Laura A. Bruins, Patrick Jedlowski, Patrick G. Votruba, Moulun Luo, Robert Stewart, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421757</t>
+          <t>https://openalex.org/W4362639398</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Supplementary table 4 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Supplement 4. Next generation sequencing results for second round screen. from CRISPR Genome-Wide Screening Identifies Dependence on the Proteasome Subunit PSMC6 for Bortezomib Sensitivity in Multiple Myeloma</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414905.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22509892.v1</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3840,27 +3840,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yuanmin Wang, Moulun Luo, Fukun Zhao, Mu Chun Su, Meiyan Li</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t>Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China; Department of pharmacy, The First People's Hospital of Zunyi (The Third Affiliated Hospital of Zunyi Medical University), China</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421849</t>
+          <t>https://openalex.org/W4378804477</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>supplementary figures from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Bioinformatics analysis of key genes in patients with sarcoidosis and prediction of traditional Chinese Medicine</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3875,22 +3875,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
+          <t>https://doi.org/10.1145/3592686.3592739</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414899.v1</t>
+          <t>https://doi.org/10.1145/3592686.3592739</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3927,47 +3927,47 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yi Liu, X. Ai, G. C. Xiao, Yaxuan Li, Wu Ling-Hui, Liangliang Wang, J. Dong, M. Y. Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Ruikai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362421881</t>
+          <t>https://openalex.org/W4386557787</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Spplementary table 1 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Simulation study of BESIII with stitched CMOS pixel detector using ACTS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
+          <t>https://arxiv.org/abs/2309.02358</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414914.v1</t>
+          <t>https://doi.org/10.48550/arxiv.2309.02358</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4014,57 +4014,57 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
+          <t>Yi Liu, X. Ai, G. Y. Xiao, Yaxuan Li, Wu Ling-Hui, Liang-Liang Wang, J. Dong, Ming-Yi Dong, Q. X. Geng, Moulun Luo, Na Yan, Andrew Wang, Chenxu Wang, Meng Wang, Lei Zhang, Liang Zhang, Rui-Kai Zhang, Yao Zhang, M. G. Zhao, Yang Zhou</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t>School of Physics and Microelectronics, Zhengzhou University, Zhengzhou, 450001, China; School of Physics and Microelectronics, Zhengzhou University, Zhengzhou, 450001, China; School of Physics, Nanjing University, Nanjing, 210093, China; School of Physics, Nankai University, Tianjin, 300071, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Physics, Nanjing University, Nanjing, 210093, China; Research Center for Particle Science and Technology, Institute of Frontier and Interdisciplinary Science, Shandong University, Qingdao, 266237, China; School of Information Science and Engineering, Harbin Institute of Technology, Weihai, 264209, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China; School of Physics, Nankai University, Tianjin, 300071, China; Institute of High Energy Physics, Chinese Academy of Sciences, 19B Yuquan Road, Shijingshan District, Beijing, 100049, China</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362422103</t>
+          <t>https://openalex.org/W4389617103</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Supplementary table 2 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+          <t>Simulation study of BESIII with stitched CMOS pixel detector using acts</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nuclear Science and Techniques</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
+          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22414911.v1</t>
+          <t>https://doi.org/10.1007/s41365-023-01353-6</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4101,85 +4101,172 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Fan Wang, Moulun Luo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4390080872</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Structural View of Human ABCs in Multidrug Resistance</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202312.1514.v1</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Yuan Xiao Zhu, Chang‐Xin Shi, Laura A. Bruins, Patrick Jedlowski, Xuewei Wang, K. Martin Kortüm, Moulun Luo, Jonathan M. Ahmann, Esteban Braggio, A. Keith Stewart</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4362422259</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Supplementary table 5 from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392724267</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Data from Loss of &amp;lt;i&amp;gt;FAM46C&amp;lt;/i&amp;gt; Promotes Cell Survival in Myeloma</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6509109</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22414902.v1</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6509109</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
